--- a/RestAssuredMainAssignment/src/test/data/CreateUser.xlsx
+++ b/RestAssuredMainAssignment/src/test/data/CreateUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HUAPI\RestAssuredMainAssignment\src\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3FD44F-595C-4C2F-9ECC-4C015E9305D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BA49B1-27C1-4455-A6B1-6CDFB3E2921A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="1240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>passabcd</t>
   </si>
   <si>
-    <t>vpant22@gmail.com</t>
+    <t>vpant113@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/RestAssuredMainAssignment/src/test/data/CreateUser.xlsx
+++ b/RestAssuredMainAssignment/src/test/data/CreateUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HUAPI\RestAssuredMainAssignment\src\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BA49B1-27C1-4455-A6B1-6CDFB3E2921A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323FCE0E-AEBD-4A82-8398-42996C3E469D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="1240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>passabcd</t>
   </si>
   <si>
-    <t>vpant113@gmail.com</t>
+    <t>vpant1138@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/RestAssuredMainAssignment/src/test/data/CreateUser.xlsx
+++ b/RestAssuredMainAssignment/src/test/data/CreateUser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HUAPI\RestAssuredMainAssignment\src\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323FCE0E-AEBD-4A82-8398-42996C3E469D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE3DAE1-18BA-4D73-9DF1-22DD8AEA0D50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userdata" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>passabcd</t>
   </si>
   <si>
-    <t>vpant1138@gmail.com</t>
+    <t>vpant113238@gmail.com</t>
   </si>
 </sst>
 </file>
